--- a/Codelist Excel Files and Conversion Templates to XML/FGDC_Lith_Patterns.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/FGDC_Lith_Patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE58819-2132-484D-B782-66EBDC6442F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D60892-2B27-284F-B6CE-B870FE0A1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="2880" windowWidth="35840" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="2880" windowWidth="35840" windowHeight="20740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="357">
   <si>
     <t>Description</t>
   </si>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>Peat</t>
-  </si>
-  <si>
-    <t>ASTM D2487</t>
   </si>
   <si>
     <t>Gravel or conglomerate (1st option)</t>
@@ -1271,7 +1268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1294,11 +1291,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1318,28 +1310,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1410,6 +1380,28 @@
         <color auto="1"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1535,29 +1527,29 @@
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2868,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D118" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D118" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D118" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1845,8 +1837,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1886,16 +1878,16 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -1912,8 +1904,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H118"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1963,20 +1955,20 @@
       <c r="B2">
         <v>601</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>235</v>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -1987,20 +1979,20 @@
       <c r="B3">
         <v>602</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>236</v>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2011,20 +2003,20 @@
       <c r="B4">
         <v>603</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>237</v>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2035,20 +2027,20 @@
       <c r="B5">
         <v>605</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>238</v>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2059,20 +2051,20 @@
       <c r="B6">
         <v>606</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>239</v>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2083,20 +2075,20 @@
       <c r="B7">
         <v>607</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>240</v>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
+        <v>239</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2107,20 +2099,20 @@
       <c r="B8">
         <v>608</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>241</v>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>240</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2131,20 +2123,20 @@
       <c r="B9">
         <v>609</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>242</v>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>241</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2155,20 +2147,20 @@
       <c r="B10">
         <v>610</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>243</v>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2179,20 +2171,20 @@
       <c r="B11">
         <v>611</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>244</v>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2203,20 +2195,20 @@
       <c r="B12">
         <v>612</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>245</v>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2227,20 +2219,20 @@
       <c r="B13">
         <v>613</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>246</v>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2251,20 +2243,20 @@
       <c r="B14">
         <v>614</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>247</v>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2275,20 +2267,20 @@
       <c r="B15">
         <v>616</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>248</v>
+      <c r="C15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2299,20 +2291,20 @@
       <c r="B16">
         <v>617</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>249</v>
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>248</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2323,20 +2315,20 @@
       <c r="B17">
         <v>618</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>250</v>
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>249</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2347,20 +2339,20 @@
       <c r="B18">
         <v>619</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>251</v>
+      <c r="C18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" t="s">
+        <v>250</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2371,20 +2363,20 @@
       <c r="B19">
         <v>620</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>252</v>
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" t="s">
+        <v>251</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2395,20 +2387,20 @@
       <c r="B20">
         <v>621</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>253</v>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
+        <v>252</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2419,20 +2411,20 @@
       <c r="B21">
         <v>622</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>254</v>
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" t="s">
+        <v>253</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2443,20 +2435,20 @@
       <c r="B22">
         <v>623</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>255</v>
+      <c r="C22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2467,20 +2459,20 @@
       <c r="B23">
         <v>624</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>256</v>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>255</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2491,20 +2483,20 @@
       <c r="B24">
         <v>625</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>257</v>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" t="s">
+        <v>256</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2515,20 +2507,20 @@
       <c r="B25">
         <v>626</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>258</v>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2539,20 +2531,20 @@
       <c r="B26">
         <v>627</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>259</v>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" t="s">
+        <v>258</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2563,20 +2555,20 @@
       <c r="B27">
         <v>628</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>260</v>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>259</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,20 +2579,20 @@
       <c r="B28">
         <v>629</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>261</v>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2611,20 +2603,20 @@
       <c r="B29">
         <v>630</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>262</v>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" t="s">
+        <v>261</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2635,20 +2627,20 @@
       <c r="B30">
         <v>631</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>263</v>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" t="s">
+        <v>262</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2659,20 +2651,20 @@
       <c r="B31">
         <v>632</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>264</v>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" t="s">
+        <v>263</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2683,20 +2675,20 @@
       <c r="B32">
         <v>633</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>265</v>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>264</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2707,20 +2699,20 @@
       <c r="B33">
         <v>634</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>266</v>
+      <c r="C33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" t="s">
+        <v>265</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2731,20 +2723,20 @@
       <c r="B34">
         <v>635</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>267</v>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2755,20 +2747,20 @@
       <c r="B35">
         <v>636</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>268</v>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" t="s">
+        <v>267</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2779,20 +2771,20 @@
       <c r="B36">
         <v>637</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>269</v>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" t="s">
+        <v>268</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2803,20 +2795,20 @@
       <c r="B37">
         <v>638</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>270</v>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>269</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2827,20 +2819,20 @@
       <c r="B38">
         <v>639</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>271</v>
+      <c r="C38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" t="s">
+        <v>270</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2851,20 +2843,20 @@
       <c r="B39">
         <v>640</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>272</v>
+      <c r="C39" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" t="s">
+        <v>271</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2875,20 +2867,20 @@
       <c r="B40">
         <v>641</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>273</v>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>272</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2899,20 +2891,20 @@
       <c r="B41">
         <v>642</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>274</v>
+      <c r="C41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" t="s">
+        <v>273</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2923,20 +2915,20 @@
       <c r="B42">
         <v>643</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>275</v>
+      <c r="C42" t="s">
+        <v>274</v>
+      </c>
+      <c r="D42" t="s">
+        <v>274</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2947,20 +2939,20 @@
       <c r="B43">
         <v>644</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>276</v>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" t="s">
+        <v>275</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2971,20 +2963,20 @@
       <c r="B44">
         <v>652</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>277</v>
+      <c r="C44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" t="s">
+        <v>276</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2995,20 +2987,20 @@
       <c r="B45">
         <v>653</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>278</v>
+      <c r="C45" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" t="s">
+        <v>277</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3019,20 +3011,20 @@
       <c r="B46">
         <v>654</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>279</v>
+      <c r="C46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" t="s">
+        <v>278</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3043,20 +3035,20 @@
       <c r="B47">
         <v>655</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>280</v>
+      <c r="C47" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" t="s">
+        <v>279</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3067,20 +3059,20 @@
       <c r="B48">
         <v>656</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>281</v>
+      <c r="C48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" t="s">
+        <v>280</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3091,20 +3083,20 @@
       <c r="B49">
         <v>657</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" t="s">
         <v>233</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" t="s">
         <v>233</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3115,20 +3107,20 @@
       <c r="B50">
         <v>658</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>282</v>
+      <c r="C50" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" t="s">
+        <v>281</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3139,20 +3131,20 @@
       <c r="B51">
         <v>645</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>283</v>
+      <c r="C51" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" t="s">
+        <v>282</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3163,20 +3155,20 @@
       <c r="B52">
         <v>646</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>284</v>
+      <c r="C52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" t="s">
+        <v>283</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3187,20 +3179,20 @@
       <c r="B53">
         <v>647</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>285</v>
+      <c r="C53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" t="s">
+        <v>284</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3211,20 +3203,20 @@
       <c r="B54">
         <v>648</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>286</v>
+      <c r="C54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" t="s">
+        <v>285</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3235,20 +3227,20 @@
       <c r="B55">
         <v>649</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>287</v>
+      <c r="C55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" t="s">
+        <v>286</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3259,20 +3251,20 @@
       <c r="B56">
         <v>650</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>288</v>
+      <c r="C56" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" t="s">
+        <v>287</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3283,20 +3275,20 @@
       <c r="B57">
         <v>651</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>289</v>
+      <c r="C57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s">
+        <v>288</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3307,20 +3299,20 @@
       <c r="B58">
         <v>659</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>290</v>
+      <c r="C58" t="s">
+        <v>289</v>
+      </c>
+      <c r="D58" t="s">
+        <v>289</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3331,20 +3323,20 @@
       <c r="B59">
         <v>660</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>291</v>
+      <c r="C59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" t="s">
+        <v>290</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3355,20 +3347,20 @@
       <c r="B60">
         <v>661</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>292</v>
+      <c r="C60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" t="s">
+        <v>291</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3379,20 +3371,20 @@
       <c r="B61">
         <v>662</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>293</v>
+      <c r="C61" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" t="s">
+        <v>292</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3403,20 +3395,20 @@
       <c r="B62">
         <v>663</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>294</v>
+      <c r="C62" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" t="s">
+        <v>293</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3427,20 +3419,20 @@
       <c r="B63">
         <v>664</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>295</v>
+      <c r="C63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D63" t="s">
+        <v>294</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3451,20 +3443,20 @@
       <c r="B64">
         <v>665</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>296</v>
+      <c r="C64" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" t="s">
+        <v>295</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3475,20 +3467,20 @@
       <c r="B65">
         <v>666</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>297</v>
+      <c r="C65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" t="s">
+        <v>296</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3499,20 +3491,20 @@
       <c r="B66">
         <v>667</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>298</v>
+      <c r="C66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" t="s">
+        <v>297</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3523,20 +3515,20 @@
       <c r="B67">
         <v>668</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>299</v>
+      <c r="C67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" t="s">
+        <v>298</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3547,20 +3539,20 @@
       <c r="B68">
         <v>669</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>300</v>
+      <c r="C68" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" t="s">
+        <v>299</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3571,20 +3563,20 @@
       <c r="B69">
         <v>670</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>301</v>
+      <c r="C69" t="s">
+        <v>300</v>
+      </c>
+      <c r="D69" t="s">
+        <v>300</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3595,20 +3587,20 @@
       <c r="B70">
         <v>671</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>302</v>
+      <c r="C70" t="s">
+        <v>301</v>
+      </c>
+      <c r="D70" t="s">
+        <v>301</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3619,20 +3611,20 @@
       <c r="B71">
         <v>672</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>303</v>
+      <c r="C71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" t="s">
+        <v>302</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3643,20 +3635,20 @@
       <c r="B72">
         <v>680</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>304</v>
+      <c r="C72" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" t="s">
+        <v>303</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3667,20 +3659,20 @@
       <c r="B73">
         <v>681</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>305</v>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
+        <v>304</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3691,20 +3683,20 @@
       <c r="B74">
         <v>682</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>306</v>
+      <c r="C74" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" t="s">
+        <v>305</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3715,20 +3707,20 @@
       <c r="B75">
         <v>683</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>307</v>
+      <c r="C75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" t="s">
+        <v>306</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3739,20 +3731,20 @@
       <c r="B76">
         <v>684</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>308</v>
+      <c r="C76" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" t="s">
+        <v>307</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3763,20 +3755,20 @@
       <c r="B77">
         <v>685</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>309</v>
+      <c r="C77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3787,20 +3779,20 @@
       <c r="B78">
         <v>686</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>310</v>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>309</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3811,20 +3803,20 @@
       <c r="B79">
         <v>673</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>311</v>
+      <c r="C79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" t="s">
+        <v>310</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3835,20 +3827,20 @@
       <c r="B80">
         <v>674</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>312</v>
+      <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" t="s">
+        <v>311</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3859,20 +3851,20 @@
       <c r="B81">
         <v>675</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>313</v>
+      <c r="C81" t="s">
+        <v>312</v>
+      </c>
+      <c r="D81" t="s">
+        <v>312</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3883,20 +3875,20 @@
       <c r="B82">
         <v>676</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>314</v>
+      <c r="C82" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" t="s">
+        <v>313</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3907,20 +3899,20 @@
       <c r="B83">
         <v>677</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>315</v>
+      <c r="C83" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" t="s">
+        <v>314</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3931,20 +3923,20 @@
       <c r="B84">
         <v>678</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>316</v>
+      <c r="C84" t="s">
+        <v>315</v>
+      </c>
+      <c r="D84" t="s">
+        <v>315</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3955,20 +3947,20 @@
       <c r="B85">
         <v>679</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>317</v>
+      <c r="C85" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" t="s">
+        <v>316</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3979,20 +3971,20 @@
       <c r="B86">
         <v>717</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>318</v>
+      <c r="C86" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" t="s">
+        <v>317</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4003,20 +3995,20 @@
       <c r="B87">
         <v>718</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>319</v>
+      <c r="C87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" t="s">
+        <v>318</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4027,20 +4019,20 @@
       <c r="B88">
         <v>719</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>320</v>
+      <c r="C88" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" t="s">
+        <v>319</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4051,20 +4043,20 @@
       <c r="B89">
         <v>720</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>321</v>
+      <c r="C89" t="s">
+        <v>320</v>
+      </c>
+      <c r="D89" t="s">
+        <v>320</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4075,20 +4067,20 @@
       <c r="B90">
         <v>721</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>322</v>
+      <c r="C90" t="s">
+        <v>321</v>
+      </c>
+      <c r="D90" t="s">
+        <v>321</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4099,20 +4091,20 @@
       <c r="B91">
         <v>723</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>323</v>
+      <c r="C91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91" t="s">
+        <v>322</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4123,20 +4115,20 @@
       <c r="B92">
         <v>724</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>324</v>
+      <c r="C92" t="s">
+        <v>323</v>
+      </c>
+      <c r="D92" t="s">
+        <v>323</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4147,20 +4139,20 @@
       <c r="B93">
         <v>725</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>325</v>
+      <c r="C93" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" t="s">
+        <v>324</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4171,20 +4163,20 @@
       <c r="B94">
         <v>726</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>326</v>
+      <c r="C94" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" t="s">
+        <v>325</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4195,20 +4187,20 @@
       <c r="B95">
         <v>727</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>327</v>
+      <c r="C95" t="s">
+        <v>326</v>
+      </c>
+      <c r="D95" t="s">
+        <v>326</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4219,20 +4211,20 @@
       <c r="B96">
         <v>728</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>328</v>
+      <c r="C96" t="s">
+        <v>327</v>
+      </c>
+      <c r="D96" t="s">
+        <v>327</v>
       </c>
       <c r="E96" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4243,20 +4235,20 @@
       <c r="B97">
         <v>722</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>329</v>
+      <c r="C97" t="s">
+        <v>328</v>
+      </c>
+      <c r="D97" t="s">
+        <v>328</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4267,20 +4259,20 @@
       <c r="B98">
         <v>711</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>330</v>
+      <c r="C98" t="s">
+        <v>329</v>
+      </c>
+      <c r="D98" t="s">
+        <v>329</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4291,20 +4283,20 @@
       <c r="B99">
         <v>712</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>331</v>
+      <c r="C99" t="s">
+        <v>330</v>
+      </c>
+      <c r="D99" t="s">
+        <v>330</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4315,20 +4307,20 @@
       <c r="B100">
         <v>713</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>332</v>
+      <c r="C100" t="s">
+        <v>331</v>
+      </c>
+      <c r="D100" t="s">
+        <v>331</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4339,428 +4331,428 @@
       <c r="B101">
         <v>714</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>333</v>
+      <c r="C101" t="s">
+        <v>332</v>
+      </c>
+      <c r="D101" t="s">
+        <v>332</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="str">
+      <c r="A102" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B2968,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102">
         <v>715</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>334</v>
+      <c r="C102" t="s">
+        <v>333</v>
+      </c>
+      <c r="D102" t="s">
+        <v>333</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="str">
+      <c r="A103" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B2969,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103">
         <v>716</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>335</v>
+      <c r="C103" t="s">
+        <v>334</v>
+      </c>
+      <c r="D103" t="s">
+        <v>334</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="str">
+      <c r="A104" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B2970,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104">
         <v>729</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>336</v>
+      <c r="C104" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" t="s">
+        <v>335</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="str">
+      <c r="A105" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B2971,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105">
         <v>730</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>337</v>
+      <c r="C105" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" t="s">
+        <v>336</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="15" t="str">
+      <c r="A106" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B2972,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106">
         <v>731</v>
       </c>
-      <c r="C106" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>338</v>
+      <c r="C106" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" t="s">
+        <v>337</v>
       </c>
       <c r="E106" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="str">
+      <c r="A107" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B2973,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107">
         <v>732</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>339</v>
+      <c r="C107" t="s">
+        <v>338</v>
+      </c>
+      <c r="D107" t="s">
+        <v>338</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A108" s="15" t="str">
+      <c r="A108" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B2974,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108">
         <v>733</v>
       </c>
-      <c r="C108" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>340</v>
+      <c r="C108" t="s">
+        <v>339</v>
+      </c>
+      <c r="D108" t="s">
+        <v>339</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H108" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="15" t="str">
+      <c r="A109" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B2975,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109">
         <v>707</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>341</v>
+      <c r="C109" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" t="s">
+        <v>340</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H109" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="15" t="str">
+      <c r="A110" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B2976,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110">
         <v>708</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>342</v>
+      <c r="C110" t="s">
+        <v>341</v>
+      </c>
+      <c r="D110" t="s">
+        <v>341</v>
       </c>
       <c r="E110" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A111" s="15" t="str">
+      <c r="A111" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B2977,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111">
         <v>709</v>
       </c>
-      <c r="C111" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>343</v>
+      <c r="C111" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" t="s">
+        <v>342</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="str">
+      <c r="A112" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B2978,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112">
         <v>710</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>344</v>
+      <c r="C112" t="s">
+        <v>343</v>
+      </c>
+      <c r="D112" t="s">
+        <v>343</v>
       </c>
       <c r="E112" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H112" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="str">
+      <c r="A113" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B2979,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113">
         <v>701</v>
       </c>
-      <c r="C113" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>345</v>
+      <c r="C113" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" t="s">
+        <v>344</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H113" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="15" t="str">
+      <c r="A114" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B2980,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114">
         <v>702</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>346</v>
+      <c r="C114" t="s">
+        <v>345</v>
+      </c>
+      <c r="D114" t="s">
+        <v>345</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H114" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="str">
+      <c r="A115" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B2981,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115">
         <v>703</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>347</v>
+      <c r="C115" t="s">
+        <v>346</v>
+      </c>
+      <c r="D115" t="s">
+        <v>346</v>
       </c>
       <c r="E115" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H115" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="str">
+      <c r="A116" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B2982,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116">
         <v>704</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>348</v>
+      <c r="C116" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116" t="s">
+        <v>347</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H116" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="str">
+      <c r="A117" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B2983,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117">
         <v>705</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>349</v>
+      <c r="C117" t="s">
+        <v>348</v>
+      </c>
+      <c r="D117" t="s">
+        <v>348</v>
       </c>
       <c r="E117" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H117" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="str">
+      <c r="A118" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B2984,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118">
         <v>706</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>350</v>
+      <c r="C118" t="s">
+        <v>349</v>
+      </c>
+      <c r="D118" t="s">
+        <v>349</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H118" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4768,11 +4760,12 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{DDC7BED3-E809-B942-A4B3-2584549E3CAC}"/>
     <hyperlink ref="H3:H118" r:id="rId2" display="https://ngmdb.usgs.gov/fgdc_gds/geolsymstd/fgdc-geolsym-sec37.pdf" xr:uid="{0D315386-7127-EC44-AC9D-B423842F1DAE}"/>
+    <hyperlink ref="H103" r:id="rId3" xr:uid="{CE0DBF19-E6EE-534B-B412-1637E8395F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4836,7 +4829,7 @@
         <v>601</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4848,7 +4841,7 @@
         <v>602</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4860,7 +4853,7 @@
         <v>603</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4872,7 +4865,7 @@
         <v>605</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4884,7 +4877,7 @@
         <v>606</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,7 +4889,7 @@
         <v>607</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4908,7 +4901,7 @@
         <v>608</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4920,7 +4913,7 @@
         <v>609</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4932,7 +4925,7 @@
         <v>610</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4944,7 +4937,7 @@
         <v>611</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4956,7 +4949,7 @@
         <v>612</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4968,7 +4961,7 @@
         <v>613</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4980,7 +4973,7 @@
         <v>614</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4992,7 +4985,7 @@
         <v>616</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5004,7 +4997,7 @@
         <v>617</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5016,7 +5009,7 @@
         <v>618</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5028,7 +5021,7 @@
         <v>619</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5040,7 +5033,7 @@
         <v>620</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5052,7 +5045,7 @@
         <v>621</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5064,7 +5057,7 @@
         <v>622</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5076,7 +5069,7 @@
         <v>623</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5088,7 +5081,7 @@
         <v>624</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5100,7 +5093,7 @@
         <v>625</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5112,7 +5105,7 @@
         <v>626</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5124,7 +5117,7 @@
         <v>627</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5136,7 +5129,7 @@
         <v>628</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5148,7 +5141,7 @@
         <v>629</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5160,7 +5153,7 @@
         <v>630</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5172,7 +5165,7 @@
         <v>631</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5184,7 +5177,7 @@
         <v>632</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5196,7 +5189,7 @@
         <v>633</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5208,7 +5201,7 @@
         <v>634</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5220,7 +5213,7 @@
         <v>635</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5232,7 +5225,7 @@
         <v>636</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,7 +5237,7 @@
         <v>637</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5256,7 +5249,7 @@
         <v>638</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5268,7 +5261,7 @@
         <v>639</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5280,7 +5273,7 @@
         <v>640</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5292,7 +5285,7 @@
         <v>641</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5304,7 +5297,7 @@
         <v>642</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5316,7 +5309,7 @@
         <v>643</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -5328,7 +5321,7 @@
         <v>644</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -5340,7 +5333,7 @@
         <v>652</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5352,7 +5345,7 @@
         <v>653</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -5364,7 +5357,7 @@
         <v>654</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -5376,7 +5369,7 @@
         <v>655</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -5388,7 +5381,7 @@
         <v>656</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -5400,7 +5393,7 @@
         <v>657</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -5412,7 +5405,7 @@
         <v>658</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -5424,7 +5417,7 @@
         <v>645</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -5436,7 +5429,7 @@
         <v>646</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -5448,7 +5441,7 @@
         <v>647</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -5460,7 +5453,7 @@
         <v>648</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -5472,7 +5465,7 @@
         <v>649</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -5484,7 +5477,7 @@
         <v>650</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -5496,7 +5489,7 @@
         <v>651</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -5508,7 +5501,7 @@
         <v>659</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -5520,7 +5513,7 @@
         <v>660</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -5532,7 +5525,7 @@
         <v>661</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -5544,7 +5537,7 @@
         <v>662</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -5556,7 +5549,7 @@
         <v>663</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -5568,7 +5561,7 @@
         <v>664</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -5580,7 +5573,7 @@
         <v>665</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -5592,7 +5585,7 @@
         <v>666</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -5604,7 +5597,7 @@
         <v>667</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -5616,7 +5609,7 @@
         <v>668</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -5628,7 +5621,7 @@
         <v>669</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -5640,7 +5633,7 @@
         <v>670</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -5652,7 +5645,7 @@
         <v>671</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -5664,7 +5657,7 @@
         <v>672</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -5676,7 +5669,7 @@
         <v>680</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -5688,7 +5681,7 @@
         <v>681</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -5700,7 +5693,7 @@
         <v>682</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -5712,7 +5705,7 @@
         <v>683</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -5724,7 +5717,7 @@
         <v>684</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -5736,7 +5729,7 @@
         <v>685</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -5748,7 +5741,7 @@
         <v>686</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -5760,7 +5753,7 @@
         <v>673</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -5772,7 +5765,7 @@
         <v>674</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -5784,7 +5777,7 @@
         <v>675</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -5796,7 +5789,7 @@
         <v>676</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -5808,7 +5801,7 @@
         <v>677</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -5820,7 +5813,7 @@
         <v>678</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -5832,7 +5825,7 @@
         <v>679</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -5844,7 +5837,7 @@
         <v>717</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -5856,7 +5849,7 @@
         <v>718</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -5868,7 +5861,7 @@
         <v>719</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -5880,7 +5873,7 @@
         <v>720</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -5892,7 +5885,7 @@
         <v>721</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -5904,7 +5897,7 @@
         <v>723</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -5916,7 +5909,7 @@
         <v>724</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -5928,7 +5921,7 @@
         <v>725</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -5940,7 +5933,7 @@
         <v>726</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -5952,7 +5945,7 @@
         <v>727</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -5964,7 +5957,7 @@
         <v>728</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -5976,7 +5969,7 @@
         <v>722</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -5988,7 +5981,7 @@
         <v>711</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -6000,7 +5993,7 @@
         <v>712</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -6012,7 +6005,7 @@
         <v>713</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -6024,11 +6017,11 @@
         <v>714</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="str">
+      <c r="A102" t="str">
         <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6036,11 +6029,11 @@
         <v>715</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="16" t="str">
+      <c r="A103" t="str">
         <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6048,11 +6041,11 @@
         <v>716</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="str">
+      <c r="A104" t="str">
         <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6060,11 +6053,11 @@
         <v>729</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="str">
+      <c r="A105" t="str">
         <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6072,11 +6065,11 @@
         <v>730</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="str">
+      <c r="A106" t="str">
         <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6084,11 +6077,11 @@
         <v>731</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="str">
+      <c r="A107" t="str">
         <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6096,11 +6089,11 @@
         <v>732</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="str">
+      <c r="A108" t="str">
         <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6108,11 +6101,11 @@
         <v>733</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="str">
+      <c r="A109" t="str">
         <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6120,11 +6113,11 @@
         <v>707</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="str">
+      <c r="A110" t="str">
         <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6132,11 +6125,11 @@
         <v>708</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="str">
+      <c r="A111" t="str">
         <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6144,11 +6137,11 @@
         <v>709</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="str">
+      <c r="A112" t="str">
         <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6156,11 +6149,11 @@
         <v>710</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="str">
+      <c r="A113" t="str">
         <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6168,11 +6161,11 @@
         <v>701</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="str">
+      <c r="A114" t="str">
         <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6180,11 +6173,11 @@
         <v>702</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="str">
+      <c r="A115" t="str">
         <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6192,11 +6185,11 @@
         <v>703</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="str">
+      <c r="A116" t="str">
         <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6204,11 +6197,11 @@
         <v>704</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="str">
+      <c r="A117" t="str">
         <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6216,11 +6209,11 @@
         <v>705</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="str">
+      <c r="A118" t="str">
         <f>IF(ISNA(VLOOKUP(B118,Definitions!B$2:B$1865,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -6228,7 +6221,7 @@
         <v>706</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6248,7 +6241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
